--- a/Semester2/grades/Grades.xlsx
+++ b/Semester2/grades/Grades.xlsx
@@ -287,7 +287,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -401,8 +401,8 @@
         <v>21</v>
       </c>
       <c r="F8" s="1" t="n">
-        <f aca="false">0</f>
-        <v>0</v>
+        <f aca="false">8/10</f>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Semester2/grades/Grades.xlsx
+++ b/Semester2/grades/Grades.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t xml:space="preserve">First name</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t xml:space="preserve">Homework 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homework 2</t>
   </si>
   <si>
     <t xml:space="preserve">Susana</t>
@@ -284,10 +287,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -296,7 +299,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.11"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="8.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.21"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="8.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="1" width="8.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -314,245 +319,312 @@
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="n">
         <f aca="false">10.5/10</f>
         <v>1.05</v>
       </c>
+      <c r="G3" s="1" t="n">
+        <f aca="false">10.5/12</f>
+        <v>0.875</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
+      <c r="G4" s="1" t="n">
+        <f aca="false">6/12</f>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" s="1" t="n">
         <f aca="false">9.25/10</f>
         <v>0.925</v>
       </c>
+      <c r="G5" s="1" t="n">
+        <f aca="false">12/12</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" s="1" t="n">
         <f aca="false">9.75/10</f>
         <v>0.975</v>
       </c>
+      <c r="G6" s="1" t="n">
+        <f aca="false">12/12</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" s="1" t="n">
         <f aca="false">9.75/10</f>
         <v>0.975</v>
       </c>
+      <c r="G7" s="1" t="n">
+        <f aca="false">12/12</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" s="1" t="n">
         <f aca="false">8/10</f>
         <v>0.8</v>
       </c>
+      <c r="G8" s="1" t="n">
+        <f aca="false">12/12</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" s="1" t="n">
         <f aca="false">8/10</f>
         <v>0.8</v>
       </c>
+      <c r="G9" s="1" t="n">
+        <f aca="false">10/12</f>
+        <v>0.833333333333333</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F11" s="1" t="n">
         <f aca="false">9.5/10</f>
         <v>0.95</v>
       </c>
+      <c r="G11" s="1" t="n">
+        <f aca="false">12/12</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F12" s="1" t="n">
         <f aca="false">8.5/10</f>
         <v>0.85</v>
       </c>
+      <c r="G12" s="1" t="n">
+        <f aca="false">11/12</f>
+        <v>0.916666666666667</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F13" s="1" t="n">
         <f aca="false">9.5/10</f>
         <v>0.95</v>
       </c>
+      <c r="G13" s="1" t="n">
+        <f aca="false">12/12</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14" s="1" t="n">
         <f aca="false">9.5/10</f>
         <v>0.95</v>
       </c>
+      <c r="G14" s="1" t="n">
+        <f aca="false">12/12</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="1" t="n">
         <f aca="false">9.75/10</f>
         <v>0.975</v>
       </c>
+      <c r="G15" s="1" t="n">
+        <f aca="false">12/12</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F16" s="1" t="n">
         <f aca="false">9/10</f>
         <v>0.9</v>
       </c>
+      <c r="G16" s="1" t="n">
+        <f aca="false">12/12</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F17" s="1" t="n">
         <f aca="false">9/10</f>
         <v>0.9</v>
       </c>
+      <c r="G17" s="1" t="n">
+        <f aca="false">12/12</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" s="1" t="n">
         <f aca="false">9.5/10</f>
         <v>0.95</v>
       </c>
+      <c r="G18" s="1" t="n">
+        <f aca="false">12/12</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F19" s="1" t="n">
         <f aca="false">9/10</f>
         <v>0.9</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <f aca="false">12/12</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Semester2/grades/Grades.xlsx
+++ b/Semester2/grades/Grades.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t xml:space="preserve">First name</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t xml:space="preserve">Homework 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homework 3</t>
   </si>
   <si>
     <t xml:space="preserve">Susana</t>
@@ -287,10 +290,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -301,7 +304,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.11"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="1" width="8.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.91"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="9" style="1" width="8.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -322,16 +326,19 @@
       <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="n">
         <f aca="false">10.5/10</f>
@@ -341,16 +348,20 @@
         <f aca="false">10.5/12</f>
         <v>0.875</v>
       </c>
+      <c r="H3" s="1" t="n">
+        <f aca="false">14/13</f>
+        <v>1.07692307692308</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="n">
         <f aca="false">0</f>
@@ -360,16 +371,20 @@
         <f aca="false">6/12</f>
         <v>0.5</v>
       </c>
+      <c r="H4" s="1" t="n">
+        <f aca="false">8/13</f>
+        <v>0.615384615384615</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1" t="n">
         <f aca="false">9.25/10</f>
@@ -382,13 +397,13 @@
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1" t="n">
         <f aca="false">9.75/10</f>
@@ -398,16 +413,20 @@
         <f aca="false">12/12</f>
         <v>1</v>
       </c>
+      <c r="H6" s="1" t="n">
+        <f aca="false">14/13</f>
+        <v>1.07692307692308</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1" t="n">
         <f aca="false">9.75/10</f>
@@ -417,16 +436,20 @@
         <f aca="false">12/12</f>
         <v>1</v>
       </c>
+      <c r="H7" s="1" t="n">
+        <f aca="false">13/13</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="1" t="n">
         <f aca="false">8/10</f>
@@ -436,16 +459,20 @@
         <f aca="false">12/12</f>
         <v>1</v>
       </c>
+      <c r="H8" s="1" t="n">
+        <f aca="false">13/13</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F9" s="1" t="n">
         <f aca="false">8/10</f>
@@ -455,16 +482,20 @@
         <f aca="false">10/12</f>
         <v>0.833333333333333</v>
       </c>
+      <c r="H9" s="1" t="n">
+        <f aca="false">12/13</f>
+        <v>0.923076923076923</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F11" s="1" t="n">
         <f aca="false">9.5/10</f>
@@ -474,16 +505,20 @@
         <f aca="false">12/12</f>
         <v>1</v>
       </c>
+      <c r="H11" s="1" t="n">
+        <f aca="false">13/13</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" s="1" t="n">
         <f aca="false">8.5/10</f>
@@ -493,16 +528,20 @@
         <f aca="false">11/12</f>
         <v>0.916666666666667</v>
       </c>
+      <c r="H12" s="1" t="n">
+        <f aca="false">12.5/13</f>
+        <v>0.961538461538462</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" s="1" t="n">
         <f aca="false">9.5/10</f>
@@ -512,16 +551,20 @@
         <f aca="false">12/12</f>
         <v>1</v>
       </c>
+      <c r="H13" s="1" t="n">
+        <f aca="false">13/13</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F14" s="1" t="n">
         <f aca="false">9.5/10</f>
@@ -531,16 +574,20 @@
         <f aca="false">12/12</f>
         <v>1</v>
       </c>
+      <c r="H14" s="1" t="n">
+        <f aca="false">13/13</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F15" s="1" t="n">
         <f aca="false">9.75/10</f>
@@ -550,16 +597,20 @@
         <f aca="false">12/12</f>
         <v>1</v>
       </c>
+      <c r="H15" s="1" t="n">
+        <f aca="false">12.5/13</f>
+        <v>0.961538461538462</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" s="1" t="n">
         <f aca="false">9/10</f>
@@ -569,16 +620,20 @@
         <f aca="false">12/12</f>
         <v>1</v>
       </c>
+      <c r="H16" s="1" t="n">
+        <f aca="false">13/13</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17" s="1" t="n">
         <f aca="false">9/10</f>
@@ -588,16 +643,20 @@
         <f aca="false">12/12</f>
         <v>1</v>
       </c>
+      <c r="H17" s="1" t="n">
+        <f aca="false">13/13</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="1" t="n">
         <f aca="false">9.5/10</f>
@@ -607,16 +666,20 @@
         <f aca="false">12/12</f>
         <v>1</v>
       </c>
+      <c r="H18" s="1" t="n">
+        <f aca="false">13/13</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F19" s="1" t="n">
         <f aca="false">9/10</f>
@@ -624,6 +687,10 @@
       </c>
       <c r="G19" s="1" t="n">
         <f aca="false">12/12</f>
+        <v>1</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <f aca="false">13/13</f>
         <v>1</v>
       </c>
     </row>

--- a/Semester2/grades/Grades.xlsx
+++ b/Semester2/grades/Grades.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t xml:space="preserve">First name</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t xml:space="preserve">Homework 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homework 4</t>
   </si>
   <si>
     <t xml:space="preserve">Susana</t>
@@ -290,10 +293,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
+      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -305,7 +308,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.91"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="9" style="1" width="8.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.21"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="8.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -329,16 +333,19 @@
       <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1" t="n">
         <f aca="false">10.5/10</f>
@@ -352,16 +359,20 @@
         <f aca="false">14/13</f>
         <v>1.07692307692308</v>
       </c>
+      <c r="I3" s="1" t="n">
+        <f aca="false">10/10</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1" t="n">
         <f aca="false">0</f>
@@ -375,16 +386,20 @@
         <f aca="false">8/13</f>
         <v>0.615384615384615</v>
       </c>
+      <c r="I4" s="1" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" s="1" t="n">
         <f aca="false">9.25/10</f>
@@ -394,16 +409,20 @@
         <f aca="false">12/12</f>
         <v>1</v>
       </c>
+      <c r="I5" s="1" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="1" t="n">
         <f aca="false">9.75/10</f>
@@ -417,16 +436,20 @@
         <f aca="false">14/13</f>
         <v>1.07692307692308</v>
       </c>
+      <c r="I6" s="1" t="n">
+        <f aca="false">11/10</f>
+        <v>1.1</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" s="1" t="n">
         <f aca="false">9.75/10</f>
@@ -440,16 +463,20 @@
         <f aca="false">13/13</f>
         <v>1</v>
       </c>
+      <c r="I7" s="1" t="n">
+        <f aca="false">10.5/10</f>
+        <v>1.05</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="1" t="n">
         <f aca="false">8/10</f>
@@ -463,16 +490,20 @@
         <f aca="false">13/13</f>
         <v>1</v>
       </c>
+      <c r="I8" s="1" t="n">
+        <f aca="false">10/10</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9" s="1" t="n">
         <f aca="false">8/10</f>
@@ -486,16 +517,20 @@
         <f aca="false">12/13</f>
         <v>0.923076923076923</v>
       </c>
+      <c r="I9" s="1" t="n">
+        <f aca="false">9.5/10</f>
+        <v>0.95</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F11" s="1" t="n">
         <f aca="false">9.5/10</f>
@@ -509,16 +544,20 @@
         <f aca="false">13/13</f>
         <v>1</v>
       </c>
+      <c r="I11" s="1" t="n">
+        <f aca="false">10/10</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" s="1" t="n">
         <f aca="false">8.5/10</f>
@@ -532,16 +571,20 @@
         <f aca="false">12.5/13</f>
         <v>0.961538461538462</v>
       </c>
+      <c r="I12" s="1" t="n">
+        <f aca="false">9/10</f>
+        <v>0.9</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F13" s="1" t="n">
         <f aca="false">9.5/10</f>
@@ -555,16 +598,20 @@
         <f aca="false">13/13</f>
         <v>1</v>
       </c>
+      <c r="I13" s="1" t="n">
+        <f aca="false">11/10</f>
+        <v>1.1</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F14" s="1" t="n">
         <f aca="false">9.5/10</f>
@@ -578,16 +625,20 @@
         <f aca="false">13/13</f>
         <v>1</v>
       </c>
+      <c r="I14" s="1" t="n">
+        <f aca="false">9/10</f>
+        <v>0.9</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" s="1" t="n">
         <f aca="false">9.75/10</f>
@@ -601,16 +652,20 @@
         <f aca="false">12.5/13</f>
         <v>0.961538461538462</v>
       </c>
+      <c r="I15" s="1" t="n">
+        <f aca="false">8.5/10</f>
+        <v>0.85</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" s="1" t="n">
         <f aca="false">9/10</f>
@@ -624,16 +679,20 @@
         <f aca="false">13/13</f>
         <v>1</v>
       </c>
+      <c r="I16" s="1" t="n">
+        <f aca="false">10/10</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F17" s="1" t="n">
         <f aca="false">9/10</f>
@@ -647,16 +706,20 @@
         <f aca="false">13/13</f>
         <v>1</v>
       </c>
+      <c r="I17" s="1" t="n">
+        <f aca="false">9.5/10</f>
+        <v>0.95</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F18" s="1" t="n">
         <f aca="false">9.5/10</f>
@@ -670,16 +733,20 @@
         <f aca="false">13/13</f>
         <v>1</v>
       </c>
+      <c r="I18" s="1" t="n">
+        <f aca="false">11/10</f>
+        <v>1.1</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F19" s="1" t="n">
         <f aca="false">9/10</f>
@@ -691,6 +758,10 @@
       </c>
       <c r="H19" s="1" t="n">
         <f aca="false">13/13</f>
+        <v>1</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <f aca="false">10/10</f>
         <v>1</v>
       </c>
     </row>

--- a/Semester2/grades/Grades.xlsx
+++ b/Semester2/grades/Grades.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t xml:space="preserve">First name</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t xml:space="preserve">Homework 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homework 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Midterm 1</t>
   </si>
   <si>
     <t xml:space="preserve">Susana</t>
@@ -293,10 +299,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
+      <selection pane="topLeft" activeCell="K16" activeCellId="0" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -309,7 +315,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.21"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="8.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="10.49"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="12" style="1" width="8.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -336,16 +344,22 @@
       <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="n">
         <f aca="false">10.5/10</f>
@@ -366,13 +380,13 @@
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="n">
         <f aca="false">0</f>
@@ -393,13 +407,13 @@
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1" t="n">
         <f aca="false">9.25/10</f>
@@ -416,13 +430,13 @@
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1" t="n">
         <f aca="false">9.75/10</f>
@@ -443,13 +457,13 @@
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1" t="n">
         <f aca="false">9.75/10</f>
@@ -470,13 +484,13 @@
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1" t="n">
         <f aca="false">8/10</f>
@@ -497,13 +511,13 @@
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F9" s="1" t="n">
         <f aca="false">8/10</f>
@@ -524,13 +538,13 @@
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F11" s="1" t="n">
         <f aca="false">9.5/10</f>
@@ -551,13 +565,13 @@
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F12" s="1" t="n">
         <f aca="false">8.5/10</f>
@@ -578,13 +592,13 @@
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F13" s="1" t="n">
         <f aca="false">9.5/10</f>
@@ -602,16 +616,20 @@
         <f aca="false">11/10</f>
         <v>1.1</v>
       </c>
+      <c r="K13" s="1" t="n">
+        <f aca="false">44/50</f>
+        <v>0.88</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F14" s="1" t="n">
         <f aca="false">9.5/10</f>
@@ -632,13 +650,13 @@
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F15" s="1" t="n">
         <f aca="false">9.75/10</f>
@@ -656,16 +674,20 @@
         <f aca="false">8.5/10</f>
         <v>0.85</v>
       </c>
+      <c r="K15" s="1" t="n">
+        <f aca="false">46/50</f>
+        <v>0.92</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F16" s="1" t="n">
         <f aca="false">9/10</f>
@@ -686,13 +708,13 @@
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F17" s="1" t="n">
         <f aca="false">9/10</f>
@@ -713,13 +735,13 @@
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F18" s="1" t="n">
         <f aca="false">9.5/10</f>
@@ -740,13 +762,13 @@
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F19" s="1" t="n">
         <f aca="false">9/10</f>

--- a/Semester2/grades/Grades.xlsx
+++ b/Semester2/grades/Grades.xlsx
@@ -302,7 +302,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K16" activeCellId="0" sqref="K16"/>
+      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -377,6 +377,10 @@
         <f aca="false">10/10</f>
         <v>1</v>
       </c>
+      <c r="K3" s="1" t="n">
+        <f aca="false">47/50</f>
+        <v>0.94</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -404,6 +408,10 @@
         <f aca="false">0</f>
         <v>0</v>
       </c>
+      <c r="K4" s="1" t="n">
+        <f aca="false">31/50</f>
+        <v>0.62</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -427,6 +435,10 @@
         <f aca="false">0</f>
         <v>0</v>
       </c>
+      <c r="K5" s="1" t="n">
+        <f aca="false">43/50</f>
+        <v>0.86</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -454,6 +466,10 @@
         <f aca="false">11/10</f>
         <v>1.1</v>
       </c>
+      <c r="K6" s="1" t="n">
+        <f aca="false">46.5/50</f>
+        <v>0.93</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -481,6 +497,10 @@
         <f aca="false">10.5/10</f>
         <v>1.05</v>
       </c>
+      <c r="K7" s="1" t="n">
+        <f aca="false">43/50</f>
+        <v>0.86</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -508,6 +528,9 @@
         <f aca="false">10/10</f>
         <v>1</v>
       </c>
+      <c r="K8" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
@@ -535,6 +558,9 @@
         <f aca="false">9.5/10</f>
         <v>0.95</v>
       </c>
+      <c r="K9" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
@@ -562,6 +588,10 @@
         <f aca="false">10/10</f>
         <v>1</v>
       </c>
+      <c r="K11" s="1" t="n">
+        <f aca="false">41/50</f>
+        <v>0.82</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -589,6 +619,10 @@
         <f aca="false">9/10</f>
         <v>0.9</v>
       </c>
+      <c r="K12" s="1" t="n">
+        <f aca="false">42/50</f>
+        <v>0.84</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
@@ -647,6 +681,10 @@
         <f aca="false">9/10</f>
         <v>0.9</v>
       </c>
+      <c r="K14" s="1" t="n">
+        <f aca="false">37.5/50</f>
+        <v>0.75</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
@@ -705,6 +743,10 @@
         <f aca="false">10/10</f>
         <v>1</v>
       </c>
+      <c r="K16" s="1" t="n">
+        <f aca="false">47/50</f>
+        <v>0.94</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
@@ -732,6 +774,10 @@
         <f aca="false">9.5/10</f>
         <v>0.95</v>
       </c>
+      <c r="K17" s="1" t="n">
+        <f aca="false">45.5/50</f>
+        <v>0.91</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
@@ -759,6 +805,10 @@
         <f aca="false">11/10</f>
         <v>1.1</v>
       </c>
+      <c r="K18" s="1" t="n">
+        <f aca="false">42/50</f>
+        <v>0.84</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
@@ -785,6 +835,10 @@
       <c r="I19" s="1" t="n">
         <f aca="false">10/10</f>
         <v>1</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <f aca="false">45.5/50</f>
+        <v>0.91</v>
       </c>
     </row>
   </sheetData>

--- a/Semester2/grades/Grades.xlsx
+++ b/Semester2/grades/Grades.xlsx
@@ -302,7 +302,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
+      <selection pane="topLeft" activeCell="K15" activeCellId="0" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -682,8 +682,8 @@
         <v>0.9</v>
       </c>
       <c r="K14" s="1" t="n">
-        <f aca="false">37.5/50</f>
-        <v>0.75</v>
+        <f aca="false">40/50</f>
+        <v>0.8</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Semester2/grades/Grades.xlsx
+++ b/Semester2/grades/Grades.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t xml:space="preserve">First name</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t xml:space="preserve">Midterm 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homework 6</t>
   </si>
   <si>
     <t xml:space="preserve">Susana</t>
@@ -299,10 +302,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K15" activeCellId="0" sqref="K15"/>
+      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -317,7 +320,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="10.49"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="12" style="1" width="8.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="13.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="1" width="8.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -350,16 +354,19 @@
       <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="L2" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="n">
         <f aca="false">10.5/10</f>
@@ -377,6 +384,10 @@
         <f aca="false">10/10</f>
         <v>1</v>
       </c>
+      <c r="J3" s="1" t="n">
+        <f aca="false">13/13</f>
+        <v>1</v>
+      </c>
       <c r="K3" s="1" t="n">
         <f aca="false">47/50</f>
         <v>0.94</v>
@@ -384,13 +395,13 @@
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="n">
         <f aca="false">0</f>
@@ -408,6 +419,9 @@
         <f aca="false">0</f>
         <v>0</v>
       </c>
+      <c r="J4" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" s="1" t="n">
         <f aca="false">31/50</f>
         <v>0.62</v>
@@ -415,13 +429,13 @@
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="1" t="n">
         <f aca="false">9.25/10</f>
@@ -435,6 +449,10 @@
         <f aca="false">0</f>
         <v>0</v>
       </c>
+      <c r="J5" s="1" t="n">
+        <f aca="false">13/13</f>
+        <v>1</v>
+      </c>
       <c r="K5" s="1" t="n">
         <f aca="false">43/50</f>
         <v>0.86</v>
@@ -442,13 +460,13 @@
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1" t="n">
         <f aca="false">9.75/10</f>
@@ -466,6 +484,10 @@
         <f aca="false">11/10</f>
         <v>1.1</v>
       </c>
+      <c r="J6" s="1" t="n">
+        <f aca="false">12.5/13</f>
+        <v>0.961538461538462</v>
+      </c>
       <c r="K6" s="1" t="n">
         <f aca="false">46.5/50</f>
         <v>0.93</v>
@@ -473,13 +495,13 @@
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1" t="n">
         <f aca="false">9.75/10</f>
@@ -497,6 +519,10 @@
         <f aca="false">10.5/10</f>
         <v>1.05</v>
       </c>
+      <c r="J7" s="1" t="n">
+        <f aca="false">12.5/13</f>
+        <v>0.961538461538462</v>
+      </c>
       <c r="K7" s="1" t="n">
         <f aca="false">43/50</f>
         <v>0.86</v>
@@ -504,13 +530,13 @@
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" s="1" t="n">
         <f aca="false">8/10</f>
@@ -528,19 +554,23 @@
         <f aca="false">10/10</f>
         <v>1</v>
       </c>
+      <c r="J8" s="1" t="n">
+        <f aca="false">11/13</f>
+        <v>0.846153846153846</v>
+      </c>
       <c r="K8" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" s="1" t="n">
         <f aca="false">8/10</f>
@@ -558,19 +588,23 @@
         <f aca="false">9.5/10</f>
         <v>0.95</v>
       </c>
+      <c r="J9" s="1" t="n">
+        <f aca="false">13/13</f>
+        <v>1</v>
+      </c>
       <c r="K9" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11" s="1" t="n">
         <f aca="false">9.5/10</f>
@@ -588,6 +622,10 @@
         <f aca="false">10/10</f>
         <v>1</v>
       </c>
+      <c r="J11" s="1" t="n">
+        <f aca="false">13/13</f>
+        <v>1</v>
+      </c>
       <c r="K11" s="1" t="n">
         <f aca="false">41/50</f>
         <v>0.82</v>
@@ -595,13 +633,13 @@
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F12" s="1" t="n">
         <f aca="false">8.5/10</f>
@@ -619,6 +657,10 @@
         <f aca="false">9/10</f>
         <v>0.9</v>
       </c>
+      <c r="J12" s="1" t="n">
+        <f aca="false">12/13</f>
+        <v>0.923076923076923</v>
+      </c>
       <c r="K12" s="1" t="n">
         <f aca="false">42/50</f>
         <v>0.84</v>
@@ -626,13 +668,13 @@
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" s="1" t="n">
         <f aca="false">9.5/10</f>
@@ -650,6 +692,10 @@
         <f aca="false">11/10</f>
         <v>1.1</v>
       </c>
+      <c r="J13" s="1" t="n">
+        <f aca="false">13/13</f>
+        <v>1</v>
+      </c>
       <c r="K13" s="1" t="n">
         <f aca="false">44/50</f>
         <v>0.88</v>
@@ -657,13 +703,13 @@
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F14" s="1" t="n">
         <f aca="false">9.5/10</f>
@@ -681,6 +727,10 @@
         <f aca="false">9/10</f>
         <v>0.9</v>
       </c>
+      <c r="J14" s="1" t="n">
+        <f aca="false">13/13</f>
+        <v>1</v>
+      </c>
       <c r="K14" s="1" t="n">
         <f aca="false">40/50</f>
         <v>0.8</v>
@@ -688,13 +738,13 @@
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" s="1" t="n">
         <f aca="false">9.75/10</f>
@@ -712,6 +762,10 @@
         <f aca="false">8.5/10</f>
         <v>0.85</v>
       </c>
+      <c r="J15" s="1" t="n">
+        <f aca="false">13/13</f>
+        <v>1</v>
+      </c>
       <c r="K15" s="1" t="n">
         <f aca="false">46/50</f>
         <v>0.92</v>
@@ -719,13 +773,13 @@
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F16" s="1" t="n">
         <f aca="false">9/10</f>
@@ -743,6 +797,10 @@
         <f aca="false">10/10</f>
         <v>1</v>
       </c>
+      <c r="J16" s="1" t="n">
+        <f aca="false">13/13</f>
+        <v>1</v>
+      </c>
       <c r="K16" s="1" t="n">
         <f aca="false">47/50</f>
         <v>0.94</v>
@@ -750,13 +808,13 @@
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F17" s="1" t="n">
         <f aca="false">9/10</f>
@@ -774,6 +832,10 @@
         <f aca="false">9.5/10</f>
         <v>0.95</v>
       </c>
+      <c r="J17" s="1" t="n">
+        <f aca="false">13/13</f>
+        <v>1</v>
+      </c>
       <c r="K17" s="1" t="n">
         <f aca="false">45.5/50</f>
         <v>0.91</v>
@@ -781,13 +843,13 @@
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F18" s="1" t="n">
         <f aca="false">9.5/10</f>
@@ -812,13 +874,13 @@
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F19" s="1" t="n">
         <f aca="false">9/10</f>
@@ -834,6 +896,10 @@
       </c>
       <c r="I19" s="1" t="n">
         <f aca="false">10/10</f>
+        <v>1</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <f aca="false">13/13</f>
         <v>1</v>
       </c>
       <c r="K19" s="1" t="n">

--- a/Semester2/grades/Grades.xlsx
+++ b/Semester2/grades/Grades.xlsx
@@ -304,8 +304,8 @@
   </sheetPr>
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -593,7 +593,8 @@
         <v>1</v>
       </c>
       <c r="K9" s="1" t="n">
-        <v>0</v>
+        <f aca="false">45/50</f>
+        <v>0.9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Semester2/grades/Grades.xlsx
+++ b/Semester2/grades/Grades.xlsx
@@ -304,8 +304,8 @@
   </sheetPr>
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L6" activeCellId="0" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -392,6 +392,10 @@
         <f aca="false">47/50</f>
         <v>0.94</v>
       </c>
+      <c r="L3" s="1" t="n">
+        <f aca="false">12/12</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -416,8 +420,8 @@
         <v>0.615384615384615</v>
       </c>
       <c r="I4" s="1" t="n">
-        <f aca="false">0</f>
-        <v>0</v>
+        <f aca="false">5/10</f>
+        <v>0.5</v>
       </c>
       <c r="J4" s="1" t="n">
         <v>0</v>
@@ -426,6 +430,10 @@
         <f aca="false">31/50</f>
         <v>0.62</v>
       </c>
+      <c r="L4" s="1" t="n">
+        <f aca="false">10/12</f>
+        <v>0.833333333333333</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -457,6 +465,10 @@
         <f aca="false">43/50</f>
         <v>0.86</v>
       </c>
+      <c r="L5" s="1" t="n">
+        <f aca="false">12/12</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -492,6 +504,10 @@
         <f aca="false">46.5/50</f>
         <v>0.93</v>
       </c>
+      <c r="L6" s="1" t="n">
+        <f aca="false">11/12</f>
+        <v>0.916666666666667</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -527,6 +543,10 @@
         <f aca="false">43/50</f>
         <v>0.86</v>
       </c>
+      <c r="L7" s="1" t="n">
+        <f aca="false">11/12</f>
+        <v>0.916666666666667</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -561,6 +581,10 @@
       <c r="K8" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="L8" s="1" t="n">
+        <f aca="false">11/12</f>
+        <v>0.916666666666667</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
@@ -596,6 +620,10 @@
         <f aca="false">45/50</f>
         <v>0.9</v>
       </c>
+      <c r="L9" s="1" t="n">
+        <f aca="false">12/12</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
@@ -631,6 +659,10 @@
         <f aca="false">41/50</f>
         <v>0.82</v>
       </c>
+      <c r="L11" s="1" t="n">
+        <f aca="false">12/12</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -666,6 +698,10 @@
         <f aca="false">42/50</f>
         <v>0.84</v>
       </c>
+      <c r="L12" s="1" t="n">
+        <f aca="false">11/12</f>
+        <v>0.916666666666667</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
@@ -701,6 +737,10 @@
         <f aca="false">44/50</f>
         <v>0.88</v>
       </c>
+      <c r="L13" s="1" t="n">
+        <f aca="false">11.5/12</f>
+        <v>0.958333333333333</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
@@ -736,6 +776,10 @@
         <f aca="false">40/50</f>
         <v>0.8</v>
       </c>
+      <c r="L14" s="1" t="n">
+        <f aca="false">11/12</f>
+        <v>0.916666666666667</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
@@ -771,6 +815,10 @@
         <f aca="false">46/50</f>
         <v>0.92</v>
       </c>
+      <c r="L15" s="1" t="n">
+        <f aca="false">11/12</f>
+        <v>0.916666666666667</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
@@ -806,6 +854,10 @@
         <f aca="false">47/50</f>
         <v>0.94</v>
       </c>
+      <c r="L16" s="1" t="n">
+        <f aca="false">12/12</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
@@ -841,6 +893,10 @@
         <f aca="false">45.5/50</f>
         <v>0.91</v>
       </c>
+      <c r="L17" s="1" t="n">
+        <f aca="false">12/12</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
@@ -872,6 +928,10 @@
         <f aca="false">42/50</f>
         <v>0.84</v>
       </c>
+      <c r="L18" s="1" t="n">
+        <f aca="false">11.5/12</f>
+        <v>0.958333333333333</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
@@ -906,6 +966,10 @@
       <c r="K19" s="1" t="n">
         <f aca="false">45.5/50</f>
         <v>0.91</v>
+      </c>
+      <c r="L19" s="1" t="n">
+        <f aca="false">12/12</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Semester2/grades/Grades.xlsx
+++ b/Semester2/grades/Grades.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t xml:space="preserve">First name</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t xml:space="preserve">Homework 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final Project Proposal</t>
   </si>
   <si>
     <t xml:space="preserve">Susana</t>
@@ -302,10 +305,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L6" activeCellId="0" sqref="L6"/>
+      <selection pane="topLeft" activeCell="M14" activeCellId="0" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -321,7 +324,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="10.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="13.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="1" width="8.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.48"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="14" style="1" width="8.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -357,16 +361,19 @@
       <c r="L2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="M2" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="n">
         <f aca="false">10.5/10</f>
@@ -399,13 +406,13 @@
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="n">
         <f aca="false">0</f>
@@ -437,13 +444,13 @@
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1" t="n">
         <f aca="false">9.25/10</f>
@@ -472,13 +479,13 @@
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" s="1" t="n">
         <f aca="false">9.75/10</f>
@@ -511,13 +518,13 @@
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" s="1" t="n">
         <f aca="false">9.75/10</f>
@@ -550,13 +557,13 @@
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8" s="1" t="n">
         <f aca="false">8/10</f>
@@ -579,7 +586,8 @@
         <v>0.846153846153846</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>0</v>
+        <f aca="false">45/50</f>
+        <v>0.9</v>
       </c>
       <c r="L8" s="1" t="n">
         <f aca="false">11/12</f>
@@ -588,13 +596,13 @@
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" s="1" t="n">
         <f aca="false">8/10</f>
@@ -627,13 +635,13 @@
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F11" s="1" t="n">
         <f aca="false">9.5/10</f>
@@ -663,16 +671,19 @@
         <f aca="false">12/12</f>
         <v>1</v>
       </c>
+      <c r="M11" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12" s="1" t="n">
         <f aca="false">8.5/10</f>
@@ -705,13 +716,13 @@
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F13" s="1" t="n">
         <f aca="false">9.5/10</f>
@@ -741,16 +752,19 @@
         <f aca="false">11.5/12</f>
         <v>0.958333333333333</v>
       </c>
+      <c r="M13" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F14" s="1" t="n">
         <f aca="false">9.5/10</f>
@@ -780,16 +794,19 @@
         <f aca="false">11/12</f>
         <v>0.916666666666667</v>
       </c>
+      <c r="M14" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F15" s="1" t="n">
         <f aca="false">9.75/10</f>
@@ -819,16 +836,19 @@
         <f aca="false">11/12</f>
         <v>0.916666666666667</v>
       </c>
+      <c r="M15" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F16" s="1" t="n">
         <f aca="false">9/10</f>
@@ -861,13 +881,13 @@
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F17" s="1" t="n">
         <f aca="false">9/10</f>
@@ -900,13 +920,13 @@
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F18" s="1" t="n">
         <f aca="false">9.5/10</f>
@@ -932,16 +952,19 @@
         <f aca="false">11.5/12</f>
         <v>0.958333333333333</v>
       </c>
+      <c r="M18" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F19" s="1" t="n">
         <f aca="false">9/10</f>

--- a/Semester2/grades/Grades.xlsx
+++ b/Semester2/grades/Grades.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t xml:space="preserve">First name</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t xml:space="preserve">Final Project Proposal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homework 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Midterm 2</t>
   </si>
   <si>
     <t xml:space="preserve">Susana</t>
@@ -305,10 +311,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M14" activeCellId="0" sqref="M14"/>
+      <selection pane="topLeft" activeCell="O3" activeCellId="0" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -325,7 +331,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="10.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="13.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.48"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="14" style="1" width="8.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="12.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="11.39"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="16" style="1" width="8.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -364,16 +372,22 @@
       <c r="M2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="N2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="n">
         <f aca="false">10.5/10</f>
@@ -403,16 +417,19 @@
         <f aca="false">12/12</f>
         <v>1</v>
       </c>
+      <c r="M3" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="n">
         <f aca="false">0</f>
@@ -441,16 +458,19 @@
         <f aca="false">10/12</f>
         <v>0.833333333333333</v>
       </c>
+      <c r="M4" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1" t="n">
         <f aca="false">9.25/10</f>
@@ -460,6 +480,10 @@
         <f aca="false">12/12</f>
         <v>1</v>
       </c>
+      <c r="H5" s="1" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
       <c r="I5" s="1" t="n">
         <f aca="false">0</f>
         <v>0</v>
@@ -476,16 +500,19 @@
         <f aca="false">12/12</f>
         <v>1</v>
       </c>
+      <c r="M5" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1" t="n">
         <f aca="false">9.75/10</f>
@@ -515,16 +542,19 @@
         <f aca="false">11/12</f>
         <v>0.916666666666667</v>
       </c>
+      <c r="M6" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F7" s="1" t="n">
         <f aca="false">9.75/10</f>
@@ -554,16 +584,19 @@
         <f aca="false">11/12</f>
         <v>0.916666666666667</v>
       </c>
+      <c r="M7" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1" t="n">
         <f aca="false">8/10</f>
@@ -593,16 +626,19 @@
         <f aca="false">11/12</f>
         <v>0.916666666666667</v>
       </c>
+      <c r="M8" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F9" s="1" t="n">
         <f aca="false">8/10</f>
@@ -632,16 +668,19 @@
         <f aca="false">12/12</f>
         <v>1</v>
       </c>
+      <c r="M9" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F11" s="1" t="n">
         <f aca="false">9.5/10</f>
@@ -677,13 +716,13 @@
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F12" s="1" t="n">
         <f aca="false">8.5/10</f>
@@ -713,16 +752,19 @@
         <f aca="false">11/12</f>
         <v>0.916666666666667</v>
       </c>
+      <c r="M12" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F13" s="1" t="n">
         <f aca="false">9.5/10</f>
@@ -758,13 +800,13 @@
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F14" s="1" t="n">
         <f aca="false">9.5/10</f>
@@ -800,13 +842,13 @@
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F15" s="1" t="n">
         <f aca="false">9.75/10</f>
@@ -842,13 +884,13 @@
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F16" s="1" t="n">
         <f aca="false">9/10</f>
@@ -878,16 +920,19 @@
         <f aca="false">12/12</f>
         <v>1</v>
       </c>
+      <c r="M16" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F17" s="1" t="n">
         <f aca="false">9/10</f>
@@ -917,16 +962,19 @@
         <f aca="false">12/12</f>
         <v>1</v>
       </c>
+      <c r="M17" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F18" s="1" t="n">
         <f aca="false">9.5/10</f>
@@ -958,13 +1006,13 @@
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F19" s="1" t="n">
         <f aca="false">9/10</f>
@@ -992,6 +1040,9 @@
       </c>
       <c r="L19" s="1" t="n">
         <f aca="false">12/12</f>
+        <v>1</v>
+      </c>
+      <c r="M19" s="1" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Semester2/grades/Grades.xlsx
+++ b/Semester2/grades/Grades.xlsx
@@ -314,7 +314,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O3" activeCellId="0" sqref="O3"/>
+      <selection pane="topLeft" activeCell="N10" activeCellId="0" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -420,6 +420,10 @@
       <c r="M3" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="N3" s="1" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -461,6 +465,10 @@
       <c r="M4" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="N4" s="1" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -503,6 +511,10 @@
       <c r="M5" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="N5" s="1" t="n">
+        <f aca="false">12/12</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -545,6 +557,10 @@
       <c r="M6" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="N6" s="1" t="n">
+        <f aca="false">12/12</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -587,6 +603,10 @@
       <c r="M7" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="N7" s="1" t="n">
+        <f aca="false">12/12</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -629,6 +649,10 @@
       <c r="M8" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="N8" s="1" t="n">
+        <f aca="false">10/12</f>
+        <v>0.833333333333333</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
@@ -671,6 +695,10 @@
       <c r="M9" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="N9" s="1" t="n">
+        <f aca="false">11/12</f>
+        <v>0.916666666666667</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
@@ -755,6 +783,10 @@
       <c r="M12" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="N12" s="1" t="n">
+        <f aca="false">12/12</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
@@ -797,6 +829,10 @@
       <c r="M13" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="N13" s="1" t="n">
+        <f aca="false">12/12</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
@@ -839,6 +875,10 @@
       <c r="M14" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="N14" s="1" t="n">
+        <f aca="false">10.5/12</f>
+        <v>0.875</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
@@ -881,6 +921,10 @@
       <c r="M15" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="N15" s="1" t="n">
+        <f aca="false">10.5/12</f>
+        <v>0.875</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
@@ -923,6 +967,10 @@
       <c r="M16" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="N16" s="1" t="n">
+        <f aca="false">12/12</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
@@ -965,6 +1013,10 @@
       <c r="M17" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="N17" s="1" t="n">
+        <f aca="false">12/12</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
@@ -1003,6 +1055,10 @@
       <c r="M18" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="N18" s="1" t="n">
+        <f aca="false">12/12</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
@@ -1043,6 +1099,10 @@
         <v>1</v>
       </c>
       <c r="M19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <f aca="false">12/12</f>
         <v>1</v>
       </c>
     </row>

--- a/Semester2/grades/Grades.xlsx
+++ b/Semester2/grades/Grades.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t xml:space="preserve">First name</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t xml:space="preserve">Midterm 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final Project Presentation</t>
   </si>
   <si>
     <t xml:space="preserve">Susana</t>
@@ -311,10 +314,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N10" activeCellId="0" sqref="N10"/>
+      <selection pane="topLeft" activeCell="P11" activeCellId="0" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -333,7 +336,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="12.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="11.39"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="16" style="1" width="8.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="25.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="17" style="1" width="8.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -378,16 +382,19 @@
       <c r="O2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="P2" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="n">
         <f aca="false">10.5/10</f>
@@ -427,13 +434,13 @@
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="n">
         <f aca="false">0</f>
@@ -472,13 +479,13 @@
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1" t="n">
         <f aca="false">9.25/10</f>
@@ -518,13 +525,13 @@
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" s="1" t="n">
         <f aca="false">9.75/10</f>
@@ -564,13 +571,13 @@
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" s="1" t="n">
         <f aca="false">9.75/10</f>
@@ -610,13 +617,13 @@
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" s="1" t="n">
         <f aca="false">8/10</f>
@@ -656,13 +663,13 @@
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F9" s="1" t="n">
         <f aca="false">8/10</f>
@@ -702,13 +709,13 @@
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F11" s="1" t="n">
         <f aca="false">9.5/10</f>
@@ -741,16 +748,20 @@
       <c r="M11" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="P11" s="1" t="n">
+        <f aca="false">1</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F12" s="1" t="n">
         <f aca="false">8.5/10</f>
@@ -790,13 +801,13 @@
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F13" s="1" t="n">
         <f aca="false">9.5/10</f>
@@ -833,16 +844,20 @@
         <f aca="false">12/12</f>
         <v>1</v>
       </c>
+      <c r="P13" s="1" t="n">
+        <f aca="false">1</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F14" s="1" t="n">
         <f aca="false">9.5/10</f>
@@ -882,13 +897,13 @@
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F15" s="1" t="n">
         <f aca="false">9.75/10</f>
@@ -928,13 +943,13 @@
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F16" s="1" t="n">
         <f aca="false">9/10</f>
@@ -974,13 +989,13 @@
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F17" s="1" t="n">
         <f aca="false">9/10</f>
@@ -1020,13 +1035,13 @@
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F18" s="1" t="n">
         <f aca="false">9.5/10</f>
@@ -1059,16 +1074,20 @@
         <f aca="false">12/12</f>
         <v>1</v>
       </c>
+      <c r="P18" s="1" t="n">
+        <f aca="false">1</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F19" s="1" t="n">
         <f aca="false">9/10</f>

--- a/Semester2/grades/Grades.xlsx
+++ b/Semester2/grades/Grades.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t xml:space="preserve">First name</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t xml:space="preserve">Final Project Presentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final Presentation</t>
   </si>
   <si>
     <t xml:space="preserve">Susana</t>
@@ -314,10 +317,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P11" activeCellId="0" sqref="P11"/>
+      <selection pane="topLeft" activeCell="Q18" activeCellId="0" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -337,7 +340,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="12.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="11.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="25.11"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="17" style="1" width="8.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="17.55"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="18" style="1" width="8.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -385,16 +389,19 @@
       <c r="P2" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="Q2" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="n">
         <f aca="false">10.5/10</f>
@@ -431,16 +438,19 @@
         <f aca="false">0</f>
         <v>0</v>
       </c>
+      <c r="P3" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="n">
         <f aca="false">0</f>
@@ -476,16 +486,19 @@
         <f aca="false">0</f>
         <v>0</v>
       </c>
+      <c r="P4" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1" t="n">
         <f aca="false">9.25/10</f>
@@ -522,16 +535,19 @@
         <f aca="false">12/12</f>
         <v>1</v>
       </c>
+      <c r="P5" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1" t="n">
         <f aca="false">9.75/10</f>
@@ -568,16 +584,19 @@
         <f aca="false">12/12</f>
         <v>1</v>
       </c>
+      <c r="P6" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1" t="n">
         <f aca="false">9.75/10</f>
@@ -614,16 +633,19 @@
         <f aca="false">12/12</f>
         <v>1</v>
       </c>
+      <c r="P7" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" s="1" t="n">
         <f aca="false">8/10</f>
@@ -660,16 +682,19 @@
         <f aca="false">10/12</f>
         <v>0.833333333333333</v>
       </c>
+      <c r="P8" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F9" s="1" t="n">
         <f aca="false">8/10</f>
@@ -706,16 +731,19 @@
         <f aca="false">11/12</f>
         <v>0.916666666666667</v>
       </c>
+      <c r="P9" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F11" s="1" t="n">
         <f aca="false">9.5/10</f>
@@ -752,16 +780,20 @@
         <f aca="false">1</f>
         <v>1</v>
       </c>
+      <c r="Q11" s="1" t="n">
+        <f aca="false">7/10</f>
+        <v>0.7</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F12" s="1" t="n">
         <f aca="false">8.5/10</f>
@@ -798,16 +830,23 @@
         <f aca="false">12/12</f>
         <v>1</v>
       </c>
+      <c r="P12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1" t="n">
+        <f aca="false">8/10</f>
+        <v>0.8</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" s="1" t="n">
         <f aca="false">9.5/10</f>
@@ -848,16 +887,20 @@
         <f aca="false">1</f>
         <v>1</v>
       </c>
+      <c r="Q13" s="1" t="n">
+        <f aca="false">7/10</f>
+        <v>0.7</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F14" s="1" t="n">
         <f aca="false">9.5/10</f>
@@ -894,16 +937,23 @@
         <f aca="false">10.5/12</f>
         <v>0.875</v>
       </c>
+      <c r="P14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1" t="n">
+        <f aca="false">9/10</f>
+        <v>0.9</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F15" s="1" t="n">
         <f aca="false">9.75/10</f>
@@ -940,16 +990,23 @@
         <f aca="false">10.5/12</f>
         <v>0.875</v>
       </c>
+      <c r="P15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1" t="n">
+        <f aca="false">7/10</f>
+        <v>0.7</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F16" s="1" t="n">
         <f aca="false">9/10</f>
@@ -986,16 +1043,23 @@
         <f aca="false">12/12</f>
         <v>1</v>
       </c>
+      <c r="P16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="1" t="n">
+        <f aca="false">8/10</f>
+        <v>0.8</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F17" s="1" t="n">
         <f aca="false">9/10</f>
@@ -1032,16 +1096,23 @@
         <f aca="false">12/12</f>
         <v>1</v>
       </c>
+      <c r="P17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1" t="n">
+        <f aca="false">8/10</f>
+        <v>0.8</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F18" s="1" t="n">
         <f aca="false">9.5/10</f>
@@ -1075,19 +1146,22 @@
         <v>1</v>
       </c>
       <c r="P18" s="1" t="n">
-        <f aca="false">1</f>
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Q18" s="1" t="n">
+        <f aca="false">7/10</f>
+        <v>0.7</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F19" s="1" t="n">
         <f aca="false">9/10</f>
@@ -1123,6 +1197,13 @@
       <c r="N19" s="1" t="n">
         <f aca="false">12/12</f>
         <v>1</v>
+      </c>
+      <c r="P19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="1" t="n">
+        <f aca="false">8/10</f>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/Semester2/grades/Grades.xlsx
+++ b/Semester2/grades/Grades.xlsx
@@ -320,7 +320,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q18" activeCellId="0" sqref="Q18"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -340,7 +340,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="12.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="11.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="25.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="17.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="17.56"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="18" style="1" width="8.5"/>
   </cols>
   <sheetData>
@@ -441,6 +441,10 @@
       <c r="P3" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="Q3" s="1" t="n">
+        <f aca="false">1</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -453,8 +457,8 @@
         <v>20</v>
       </c>
       <c r="F4" s="1" t="n">
-        <f aca="false">0</f>
-        <v>0</v>
+        <f aca="false">5/10</f>
+        <v>0.5</v>
       </c>
       <c r="G4" s="1" t="n">
         <f aca="false">6/12</f>
@@ -489,6 +493,10 @@
       <c r="P4" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="Q4" s="1" t="n">
+        <f aca="false">0.8</f>
+        <v>0.8</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -538,6 +546,10 @@
       <c r="P5" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="Q5" s="1" t="n">
+        <f aca="false">0.8</f>
+        <v>0.8</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -587,6 +599,10 @@
       <c r="P6" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="Q6" s="1" t="n">
+        <f aca="false">1</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -636,6 +652,10 @@
       <c r="P7" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="Q7" s="1" t="n">
+        <f aca="false">1</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -685,6 +705,10 @@
       <c r="P8" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="Q8" s="1" t="n">
+        <f aca="false">1</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
@@ -732,6 +756,10 @@
         <v>0.916666666666667</v>
       </c>
       <c r="P9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1" t="n">
+        <f aca="false">1</f>
         <v>1</v>
       </c>
     </row>

--- a/Semester2/grades/Grades.xlsx
+++ b/Semester2/grades/Grades.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t xml:space="preserve">First name</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t xml:space="preserve">Midterm 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Final Project Presentation</t>
   </si>
   <si>
     <t xml:space="preserve">Final Presentation</t>
@@ -319,8 +316,8 @@
   </sheetPr>
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O7" activeCellId="0" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -387,21 +384,21 @@
         <v>12</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="F3" s="1" t="n">
         <f aca="false">10.5/10</f>
@@ -435,8 +432,12 @@
         <v>1</v>
       </c>
       <c r="N3" s="1" t="n">
-        <f aca="false">0</f>
-        <v>0</v>
+        <f aca="false">12/12</f>
+        <v>1</v>
+      </c>
+      <c r="O3" s="1" t="n">
+        <f aca="false">55.5/60</f>
+        <v>0.925</v>
       </c>
       <c r="P3" s="1" t="n">
         <v>1</v>
@@ -448,13 +449,13 @@
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="F4" s="1" t="n">
         <f aca="false">5/10</f>
@@ -490,6 +491,10 @@
         <f aca="false">0</f>
         <v>0</v>
       </c>
+      <c r="O4" s="1" t="n">
+        <f aca="false">36/60</f>
+        <v>0.6</v>
+      </c>
       <c r="P4" s="1" t="n">
         <v>1</v>
       </c>
@@ -500,13 +505,13 @@
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="F5" s="1" t="n">
         <f aca="false">9.25/10</f>
@@ -553,13 +558,13 @@
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="F6" s="1" t="n">
         <f aca="false">9.75/10</f>
@@ -606,13 +611,13 @@
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="F7" s="1" t="n">
         <f aca="false">9.75/10</f>
@@ -649,6 +654,10 @@
         <f aca="false">12/12</f>
         <v>1</v>
       </c>
+      <c r="O7" s="1" t="n">
+        <f aca="false">55/60</f>
+        <v>0.916666666666667</v>
+      </c>
       <c r="P7" s="1" t="n">
         <v>1</v>
       </c>
@@ -659,13 +668,13 @@
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="F8" s="1" t="n">
         <f aca="false">8/10</f>
@@ -702,6 +711,10 @@
         <f aca="false">10/12</f>
         <v>0.833333333333333</v>
       </c>
+      <c r="O8" s="1" t="n">
+        <f aca="false">50.5/60</f>
+        <v>0.841666666666667</v>
+      </c>
       <c r="P8" s="1" t="n">
         <v>1</v>
       </c>
@@ -712,13 +725,13 @@
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="F9" s="1" t="n">
         <f aca="false">8/10</f>
@@ -765,13 +778,13 @@
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="F11" s="1" t="n">
         <f aca="false">9.5/10</f>
@@ -804,6 +817,10 @@
       <c r="M11" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O11" s="1" t="n">
+        <f aca="false">51/60</f>
+        <v>0.85</v>
+      </c>
       <c r="P11" s="1" t="n">
         <f aca="false">1</f>
         <v>1</v>
@@ -815,13 +832,13 @@
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="F12" s="1" t="n">
         <f aca="false">8.5/10</f>
@@ -858,6 +875,10 @@
         <f aca="false">12/12</f>
         <v>1</v>
       </c>
+      <c r="O12" s="1" t="n">
+        <f aca="false">49.5/60</f>
+        <v>0.825</v>
+      </c>
       <c r="P12" s="1" t="n">
         <v>1</v>
       </c>
@@ -868,13 +889,13 @@
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="F13" s="1" t="n">
         <f aca="false">9.5/10</f>
@@ -911,6 +932,10 @@
         <f aca="false">12/12</f>
         <v>1</v>
       </c>
+      <c r="O13" s="1" t="n">
+        <f aca="false">51.5/60</f>
+        <v>0.858333333333333</v>
+      </c>
       <c r="P13" s="1" t="n">
         <f aca="false">1</f>
         <v>1</v>
@@ -922,13 +947,13 @@
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="F14" s="1" t="n">
         <f aca="false">9.5/10</f>
@@ -965,6 +990,10 @@
         <f aca="false">10.5/12</f>
         <v>0.875</v>
       </c>
+      <c r="O14" s="1" t="n">
+        <f aca="false">49.5/60</f>
+        <v>0.825</v>
+      </c>
       <c r="P14" s="1" t="n">
         <v>1</v>
       </c>
@@ -975,13 +1004,13 @@
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="F15" s="1" t="n">
         <f aca="false">9.75/10</f>
@@ -1018,6 +1047,10 @@
         <f aca="false">10.5/12</f>
         <v>0.875</v>
       </c>
+      <c r="O15" s="1" t="n">
+        <f aca="false">53/60</f>
+        <v>0.883333333333333</v>
+      </c>
       <c r="P15" s="1" t="n">
         <v>1</v>
       </c>
@@ -1028,13 +1061,13 @@
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="F16" s="1" t="n">
         <f aca="false">9/10</f>
@@ -1071,6 +1104,10 @@
         <f aca="false">12/12</f>
         <v>1</v>
       </c>
+      <c r="O16" s="1" t="n">
+        <f aca="false">56/60</f>
+        <v>0.933333333333333</v>
+      </c>
       <c r="P16" s="1" t="n">
         <v>1</v>
       </c>
@@ -1081,13 +1118,13 @@
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="F17" s="1" t="n">
         <f aca="false">9/10</f>
@@ -1124,6 +1161,10 @@
         <f aca="false">12/12</f>
         <v>1</v>
       </c>
+      <c r="O17" s="1" t="n">
+        <f aca="false">56.6/60</f>
+        <v>0.943333333333333</v>
+      </c>
       <c r="P17" s="1" t="n">
         <v>1</v>
       </c>
@@ -1134,13 +1175,13 @@
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="F18" s="1" t="n">
         <f aca="false">9.5/10</f>
@@ -1173,6 +1214,10 @@
         <f aca="false">12/12</f>
         <v>1</v>
       </c>
+      <c r="O18" s="1" t="n">
+        <f aca="false">54.5/60</f>
+        <v>0.908333333333333</v>
+      </c>
       <c r="P18" s="1" t="n">
         <v>1</v>
       </c>
@@ -1183,13 +1228,13 @@
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="F19" s="1" t="n">
         <f aca="false">9/10</f>
@@ -1225,6 +1270,10 @@
       <c r="N19" s="1" t="n">
         <f aca="false">12/12</f>
         <v>1</v>
+      </c>
+      <c r="O19" s="1" t="n">
+        <f aca="false">47.5/60</f>
+        <v>0.791666666666667</v>
       </c>
       <c r="P19" s="1" t="n">
         <v>1</v>

--- a/Semester2/grades/Grades.xlsx
+++ b/Semester2/grades/Grades.xlsx
@@ -317,7 +317,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O7" activeCellId="0" sqref="O7"/>
+      <selection pane="topLeft" activeCell="O10" activeCellId="0" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -548,6 +548,10 @@
         <f aca="false">12/12</f>
         <v>1</v>
       </c>
+      <c r="O5" s="1" t="n">
+        <f aca="false">46/60</f>
+        <v>0.766666666666667</v>
+      </c>
       <c r="P5" s="1" t="n">
         <v>1</v>
       </c>
@@ -601,6 +605,10 @@
         <f aca="false">12/12</f>
         <v>1</v>
       </c>
+      <c r="O6" s="1" t="n">
+        <f aca="false">55/60</f>
+        <v>0.916666666666667</v>
+      </c>
       <c r="P6" s="1" t="n">
         <v>1</v>
       </c>
@@ -767,6 +775,10 @@
       <c r="N9" s="1" t="n">
         <f aca="false">11/12</f>
         <v>0.916666666666667</v>
+      </c>
+      <c r="O9" s="1" t="n">
+        <f aca="false">54.5/60</f>
+        <v>0.908333333333333</v>
       </c>
       <c r="P9" s="1" t="n">
         <v>1</v>

--- a/Semester2/grades/Grades.xlsx
+++ b/Semester2/grades/Grades.xlsx
@@ -317,7 +317,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O10" activeCellId="0" sqref="O10"/>
+      <selection pane="topLeft" activeCell="N12" activeCellId="0" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -333,10 +333,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="10.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="13.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="20.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="12.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="11.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="25.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="20.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="17.56"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="18" style="1" width="8.5"/>
   </cols>
@@ -828,6 +828,10 @@
       </c>
       <c r="M11" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <f aca="false">11/12</f>
+        <v>0.916666666666667</v>
       </c>
       <c r="O11" s="1" t="n">
         <f aca="false">51/60</f>

--- a/Semester2/grades/Grades.xlsx
+++ b/Semester2/grades/Grades.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="71">
   <si>
     <t xml:space="preserve">First name</t>
   </si>
@@ -64,6 +64,15 @@
     <t xml:space="preserve">Final Presentation</t>
   </si>
   <si>
+    <t xml:space="preserve">Raw Final Grade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w/ Curve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Letter</t>
+  </si>
+  <si>
     <t xml:space="preserve">Susana</t>
   </si>
   <si>
@@ -73,6 +82,9 @@
     <t xml:space="preserve">sjaramil@poets.whittier.edu</t>
   </si>
   <si>
+    <t xml:space="preserve">A+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Faith</t>
   </si>
   <si>
@@ -82,6 +94,9 @@
     <t xml:space="preserve">fzavala@poets.whittier.edu</t>
   </si>
   <si>
+    <t xml:space="preserve">D+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jackie</t>
   </si>
   <si>
@@ -91,6 +106,9 @@
     <t xml:space="preserve">jtorre10@poets.whittier.edu</t>
   </si>
   <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mursalle</t>
   </si>
   <si>
@@ -118,6 +136,9 @@
     <t xml:space="preserve">iranches@poets.whittier.edu</t>
   </si>
   <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ignacio</t>
   </si>
   <si>
@@ -136,6 +157,9 @@
     <t xml:space="preserve">mdavis5@poets.whittier.edu</t>
   </si>
   <si>
+    <t xml:space="preserve">A-</t>
+  </si>
+  <si>
     <t xml:space="preserve">Michael</t>
   </si>
   <si>
@@ -197,6 +221,9 @@
   </si>
   <si>
     <t xml:space="preserve">rbarret2@poets.whittier.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B+</t>
   </si>
   <si>
     <t xml:space="preserve">Kayla</t>
@@ -215,7 +242,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -239,6 +266,14 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -288,12 +323,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -314,10 +353,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N12" activeCellId="0" sqref="N12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T1" activeCellId="0" sqref="T1:V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -338,7 +377,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="11.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="20.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="17.56"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="18" style="1" width="8.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="16.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="9.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="7.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="11.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="13.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="23" style="1" width="8.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -351,6 +395,13 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F2" s="1" t="s">
@@ -389,16 +440,27 @@
       <c r="Q2" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="R2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="n">
         <f aca="false">10.5/10</f>
@@ -446,16 +508,33 @@
         <f aca="false">1</f>
         <v>1</v>
       </c>
+      <c r="R3" s="1" t="n">
+        <f aca="false">0.1+(F3+G3+H3+I3+J3+L3+N3)/7*0.3+K3*0.2+O3*0.2+Q3*0.2</f>
+        <v>0.973082417582418</v>
+      </c>
+      <c r="S3" s="1" t="n">
+        <f aca="false">R3+0.03</f>
+        <v>1.00308241758242</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="n">
         <f aca="false">5/10</f>
@@ -502,16 +581,33 @@
         <f aca="false">0.8</f>
         <v>0.8</v>
       </c>
+      <c r="R4" s="1" t="n">
+        <f aca="false">0.1+(F4+G4+H4+I4+J4+L4+N4)/7*0.3+K4*0.2+O4*0.2+Q4*0.2</f>
+        <v>0.630373626373626</v>
+      </c>
+      <c r="S4" s="1" t="n">
+        <f aca="false">R4+0.03</f>
+        <v>0.660373626373626</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F5" s="1" t="n">
         <f aca="false">9.25/10</f>
@@ -559,16 +655,33 @@
         <f aca="false">0.8</f>
         <v>0.8</v>
       </c>
+      <c r="R5" s="1" t="n">
+        <f aca="false">0.1+(F5+G5+H5+I5+J5+L5+N5)/7*0.3+K5*0.2+O5*0.2+Q5*0.2</f>
+        <v>0.796404761904762</v>
+      </c>
+      <c r="S5" s="1" t="n">
+        <f aca="false">R5+0.03</f>
+        <v>0.826404761904762</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1" t="n">
         <f aca="false">9.75/10</f>
@@ -616,16 +729,33 @@
         <f aca="false">1</f>
         <v>1</v>
       </c>
+      <c r="R6" s="1" t="n">
+        <f aca="false">0.1+(F6+G6+H6+I6+J6+L6+N6)/7*0.3+K6*0.2+O6*0.2+Q6*0.2</f>
+        <v>0.970624542124542</v>
+      </c>
+      <c r="S6" s="1" t="n">
+        <f aca="false">R6+0.03</f>
+        <v>1.00062454212454</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F7" s="1" t="n">
         <f aca="false">9.75/10</f>
@@ -673,16 +803,33 @@
         <f aca="false">1</f>
         <v>1</v>
       </c>
+      <c r="R7" s="1" t="n">
+        <f aca="false">0.1+(F7+G7+H7+I7+J7+L7+N7)/7*0.3+K7*0.2+O7*0.2+Q7*0.2</f>
+        <v>0.951184981684982</v>
+      </c>
+      <c r="S7" s="1" t="n">
+        <f aca="false">R7+0.03</f>
+        <v>0.981184981684982</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F8" s="1" t="n">
         <f aca="false">8/10</f>
@@ -730,16 +877,33 @@
         <f aca="false">1</f>
         <v>1</v>
       </c>
+      <c r="R8" s="1" t="n">
+        <f aca="false">0.1+(F8+G8+H8+I8+J8+L8+N8)/7*0.3+K8*0.2+O8*0.2+Q8*0.2</f>
+        <v>0.922454212454213</v>
+      </c>
+      <c r="S8" s="1" t="n">
+        <f aca="false">R8+0.03</f>
+        <v>0.952454212454212</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F9" s="1" t="n">
         <f aca="false">8/10</f>
@@ -787,16 +951,38 @@
         <f aca="false">1</f>
         <v>1</v>
       </c>
+      <c r="R9" s="1" t="n">
+        <f aca="false">0.1+(F9+G9+H9+I9+J9+L9+N9)/7*0.3+K9*0.2+O9*0.2+Q9*0.2</f>
+        <v>0.936941391941392</v>
+      </c>
+      <c r="S9" s="1" t="n">
+        <f aca="false">R9+0.03</f>
+        <v>0.966941391941392</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F11" s="1" t="n">
         <f aca="false">9.5/10</f>
@@ -845,16 +1031,33 @@
         <f aca="false">7/10</f>
         <v>0.7</v>
       </c>
+      <c r="R11" s="1" t="n">
+        <f aca="false">0.1+(F11+G11+H11+I11+J11+L11+N11)/7*0.3+K11*0.2+O11*0.2+Q11*0.2</f>
+        <v>0.868285714285714</v>
+      </c>
+      <c r="S11" s="1" t="n">
+        <f aca="false">R11+0.03</f>
+        <v>0.898285714285714</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F12" s="1" t="n">
         <f aca="false">8.5/10</f>
@@ -902,16 +1105,33 @@
         <f aca="false">8/10</f>
         <v>0.8</v>
       </c>
+      <c r="R12" s="1" t="n">
+        <f aca="false">0.1+(F12+G12+H12+I12+J12+L12+N12)/7*0.3+K12*0.2+O12*0.2+Q12*0.2</f>
+        <v>0.870197802197802</v>
+      </c>
+      <c r="S12" s="1" t="n">
+        <f aca="false">R12+0.03</f>
+        <v>0.900197802197802</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F13" s="1" t="n">
         <f aca="false">9.5/10</f>
@@ -960,16 +1180,33 @@
         <f aca="false">7/10</f>
         <v>0.7</v>
       </c>
+      <c r="R13" s="1" t="n">
+        <f aca="false">0.1+(F13+G13+H13+I13+J13+L13+N13)/7*0.3+K13*0.2+O13*0.2+Q13*0.2</f>
+        <v>0.88802380952381</v>
+      </c>
+      <c r="S13" s="1" t="n">
+        <f aca="false">R13+0.03</f>
+        <v>0.91802380952381</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F14" s="1" t="n">
         <f aca="false">9.5/10</f>
@@ -1017,16 +1254,33 @@
         <f aca="false">9/10</f>
         <v>0.9</v>
       </c>
+      <c r="R14" s="1" t="n">
+        <f aca="false">0.1+(F14+G14+H14+I14+J14+L14+N14)/7*0.3+K14*0.2+O14*0.2+Q14*0.2</f>
+        <v>0.889642857142857</v>
+      </c>
+      <c r="S14" s="1" t="n">
+        <f aca="false">R14+0.03</f>
+        <v>0.919642857142857</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F15" s="1" t="n">
         <f aca="false">9.75/10</f>
@@ -1074,16 +1328,33 @@
         <f aca="false">7/10</f>
         <v>0.7</v>
       </c>
+      <c r="R15" s="1" t="n">
+        <f aca="false">0.1+(F15+G15+H15+I15+J15+L15+N15)/7*0.3+K15*0.2+O15*0.2+Q15*0.2</f>
+        <v>0.882589743589744</v>
+      </c>
+      <c r="S15" s="1" t="n">
+        <f aca="false">R15+0.03</f>
+        <v>0.912589743589744</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F16" s="1" t="n">
         <f aca="false">9/10</f>
@@ -1131,16 +1402,33 @@
         <f aca="false">8/10</f>
         <v>0.8</v>
       </c>
+      <c r="R16" s="1" t="n">
+        <f aca="false">0.1+(F16+G16+H16+I16+J16+L16+N16)/7*0.3+K16*0.2+O16*0.2+Q16*0.2</f>
+        <v>0.930380952380952</v>
+      </c>
+      <c r="S16" s="1" t="n">
+        <f aca="false">R16+0.03</f>
+        <v>0.960380952380952</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F17" s="1" t="n">
         <f aca="false">9/10</f>
@@ -1188,16 +1476,33 @@
         <f aca="false">8/10</f>
         <v>0.8</v>
       </c>
+      <c r="R17" s="1" t="n">
+        <f aca="false">0.1+(F17+G17+H17+I17+J17+L17+N17)/7*0.3+K17*0.2+O17*0.2+Q17*0.2</f>
+        <v>0.924238095238095</v>
+      </c>
+      <c r="S17" s="1" t="n">
+        <f aca="false">R17+0.03</f>
+        <v>0.954238095238095</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F18" s="1" t="n">
         <f aca="false">9.5/10</f>
@@ -1241,16 +1546,33 @@
         <f aca="false">7/10</f>
         <v>0.7</v>
       </c>
+      <c r="R18" s="1" t="n">
+        <f aca="false">0.1+(F18+G18+H18+I18+J18+L18+N18)/7*0.3+K18*0.2+O18*0.2+Q18*0.2</f>
+        <v>0.847166666666667</v>
+      </c>
+      <c r="S18" s="1" t="n">
+        <f aca="false">R18+0.03</f>
+        <v>0.877166666666667</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F19" s="1" t="n">
         <f aca="false">9/10</f>
@@ -1297,6 +1619,23 @@
       <c r="Q19" s="1" t="n">
         <f aca="false">8/10</f>
         <v>0.8</v>
+      </c>
+      <c r="R19" s="1" t="n">
+        <f aca="false">0.1+(F19+G19+H19+I19+J19+L19+N19)/7*0.3+K19*0.2+O19*0.2+Q19*0.2</f>
+        <v>0.896047619047619</v>
+      </c>
+      <c r="S19" s="1" t="n">
+        <f aca="false">R19+0.03</f>
+        <v>0.926047619047619</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
